--- a/biology/Médecine/William_Jacson/William_Jacson.xlsx
+++ b/biology/Médecine/William_Jacson/William_Jacson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-William Jacson, né le 5 septembre 1909 à Nancy et décédé le 11 octobre 1973 à Paris[1], est un médecin et homme politique français.
+William Jacson, né le 5 septembre 1909 à Nancy et décédé le 11 octobre 1973 à Paris, est un médecin et homme politique français.
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'engage dans le scoutisme à travers les Éclaireuses éclaireurs de France.
 Le Dr William Jacson entreprend en 1952 un voyage en automobile, la « mission Lorraine-Congo », qui le conduit avec son épouse et deux camarades de Nancy à Lambaréné, via le Sahara, et l'ancienne AOF au moment où elle se prépare à accéder à l'indépendance. Il en tire un ouvrage, Les Noirs sauveront les Blancs.
-Il est présent sur la liste de Jean Lionel-Pèlerin aux municipales de 1947 à Nancy. Devenu adjoint au maire[2], il est chargé des Beaux-arts. Il crée le Grand prix littéraire ainsi le Grand prix d’art plastique de la ville de Nancy.
-Le 30 novembre 1958, il est élu député pour la Deuxième circonscription de Meurthe-et-Moselle avec le groupe UNR. Réélu trois fois de suite, il siège à l'Assemblée Nationale jusqu'au 1er avril 1973[3].
+Il est présent sur la liste de Jean Lionel-Pèlerin aux municipales de 1947 à Nancy. Devenu adjoint au maire, il est chargé des Beaux-arts. Il crée le Grand prix littéraire ainsi le Grand prix d’art plastique de la ville de Nancy.
+Le 30 novembre 1958, il est élu député pour la Deuxième circonscription de Meurthe-et-Moselle avec le groupe UNR. Réélu trois fois de suite, il siège à l'Assemblée Nationale jusqu'au 1er avril 1973.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les Noirs sauveront les Blancs, éditions du Sagittaire, 1960.</t>
         </is>
